--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,21 +49,12 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,31 +64,49 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>confidence</t>
@@ -109,52 +115,40 @@
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
 </sst>
 </file>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +575,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,19 +593,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -623,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -631,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7402597402597403</v>
+        <v>0.1763565891472868</v>
       </c>
       <c r="C6">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>425</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,289 +775,193 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>99</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L8">
+        <v>23</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="J7" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="K11">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L11">
+        <v>66</v>
+      </c>
+      <c r="M11">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3133047210300429</v>
-      </c>
-      <c r="C9">
-        <v>73</v>
-      </c>
-      <c r="D9">
-        <v>73</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>160</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>23</v>
-      </c>
-      <c r="M10">
-        <v>23</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L12">
-        <v>42</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7647058823529411</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1075,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1101,21 +999,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.717948717948718</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1127,21 +1025,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7068965517241379</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1153,47 +1051,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6986301369863014</v>
+        <v>0.68125</v>
       </c>
       <c r="L17">
+        <v>109</v>
+      </c>
+      <c r="M17">
+        <v>109</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>51</v>
-      </c>
-      <c r="M17">
-        <v>51</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1205,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1231,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6551724137931034</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1257,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6470588235294118</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1283,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1309,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5909090909090909</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1335,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5833333333333334</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1361,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.539906103286385</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L25">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M25">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1387,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>98</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5333333333333333</v>
+        <v>0.4382352941176471</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1413,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1439,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4930555555555556</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L28">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1465,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4883720930232558</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L29">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1491,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4571428571428571</v>
+        <v>0.328125</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1517,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.358695652173913</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1543,7 +1441,59 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>59</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L32">
+        <v>25</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L33">
+        <v>22</v>
+      </c>
+      <c r="M33">
+        <v>22</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -43,27 +43,30 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -73,22 +76,25 @@
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>safe</t>
@@ -97,58 +103,52 @@
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,16 +596,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +625,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6388888888888888</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6095890410958904</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>0.9230769230769231</v>
@@ -725,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1763565891472868</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1534391534391534</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.8839285714285714</v>
@@ -821,17 +821,41 @@
       </c>
     </row>
     <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0.1275167785234899</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>130</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -843,21 +867,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,12 +893,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.8103448275862069</v>
@@ -900,16 +924,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.78125</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -921,21 +945,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -947,21 +971,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7734375</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -973,21 +997,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -999,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7075471698113207</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1025,21 +1049,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1051,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.68125</v>
+        <v>0.70625</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1077,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.6190476190476191</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1103,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6170212765957447</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1129,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.62</v>
+      </c>
+      <c r="L20">
         <v>31</v>
       </c>
-      <c r="K20">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
       <c r="M20">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1155,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5957446808510638</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1181,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.58</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1207,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5625</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1233,21 +1257,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5169712793733682</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L24">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M24">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1259,21 +1283,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4406779661016949</v>
+        <v>0.461764705882353</v>
       </c>
       <c r="L25">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="M25">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1285,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4382352941176471</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L26">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1311,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>191</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4222222222222222</v>
+        <v>0.4474576271186441</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1337,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4044943820224719</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1363,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.3347280334728033</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L29">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1389,21 +1413,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>159</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.328125</v>
+        <v>0.3125</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1415,21 +1439,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3230769230769231</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1441,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3205128205128205</v>
+        <v>0.2887029288702929</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1467,33 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
-      <c r="J33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K33">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="L33">
-        <v>22</v>
-      </c>
-      <c r="M33">
-        <v>22</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>51</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,112 +43,127 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -506,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -575,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -725,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.186046511627907</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -775,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1481481481481481</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -793,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -825,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1275167785234899</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -843,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -867,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -875,13 +890,13 @@
         <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -893,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -901,13 +916,13 @@
         <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -927,13 +942,13 @@
         <v>23</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -945,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -953,13 +968,13 @@
         <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -971,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -979,13 +994,13 @@
         <v>25</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1005,13 +1020,13 @@
         <v>26</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1023,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1031,13 +1046,13 @@
         <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7323943661971831</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L15">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="M15">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1049,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1057,13 +1072,13 @@
         <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7169811320754716</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1075,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1083,13 +1098,13 @@
         <v>29</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1101,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1109,13 +1124,13 @@
         <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.70625</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1127,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1135,13 +1150,13 @@
         <v>31</v>
       </c>
       <c r="K19">
-        <v>0.6349206349206349</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1153,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1161,13 +1176,13 @@
         <v>32</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1179,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1187,13 +1202,13 @@
         <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6041666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1205,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1213,13 +1228,13 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5957446808510638</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1231,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1239,13 +1254,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5319148936170213</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1257,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1265,13 +1280,13 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5274151436031331</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1283,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>181</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1291,13 +1306,13 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.461764705882353</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L25">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1309,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>183</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1317,13 +1332,13 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4606741573033708</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L26">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1335,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1343,13 +1358,13 @@
         <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4474576271186441</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L27">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1361,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>163</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1369,13 +1384,13 @@
         <v>40</v>
       </c>
       <c r="K28">
-        <v>0.3461538461538461</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="M28">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1387,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1395,13 +1410,13 @@
         <v>41</v>
       </c>
       <c r="K29">
-        <v>0.3150684931506849</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1413,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1421,13 +1436,13 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3125</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1439,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1447,13 +1462,13 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.2923076923076923</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1465,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1473,13 +1488,13 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.2887029288702929</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L32">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1491,7 +1506,137 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>170</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.3230769230769231</v>
+      </c>
+      <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
+        <v>21</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.3179916317991632</v>
+      </c>
+      <c r="L35">
+        <v>76</v>
+      </c>
+      <c r="M35">
+        <v>76</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.008874357776739842</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>0.9</v>
+      </c>
+      <c r="O36">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>0.006117192530585963</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>0.95</v>
+      </c>
+      <c r="O37">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3087</v>
       </c>
     </row>
   </sheetData>
